--- a/data/业务流程/2 山东在职人员业务指标导入模板.xlsx
+++ b/data/业务流程/2 山东在职人员业务指标导入模板.xlsx
@@ -84,16 +84,16 @@
     <t>操作状态</t>
   </si>
   <si>
-    <t>山风雨来花语是</t>
+    <t>黃名悅</t>
   </si>
   <si>
     <t>身份证</t>
   </si>
   <si>
-    <t>431225198903109791</t>
-  </si>
-  <si>
-    <t>00008644000000002020012061</t>
+    <t>43122519890310283X</t>
+  </si>
+  <si>
+    <t>00008644000000002020012064</t>
   </si>
   <si>
     <t>50.08%</t>
@@ -696,10 +696,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -784,6 +784,127 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -798,41 +919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,92 +928,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -979,19 +979,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,115 +1129,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,43 +1159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,46 +1271,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,6 +1304,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1354,17 +1334,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,10 +1376,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1388,137 +1388,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1597,6 +1597,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2044,7 +2047,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2110,7 +2113,7 @@
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="1:17">
       <c r="A3" s="23"/>
@@ -2126,14 +2129,14 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="34"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:17">
       <c r="A4" s="23" t="s">
@@ -2166,7 +2169,7 @@
       <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="32" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="24" t="s">
@@ -2184,7 +2187,7 @@
       <c r="P4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="36" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2198,92 +2201,92 @@
       <c r="C5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="28">
         <v>30.05</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="28">
         <v>500</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="32"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:19">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" ht="127" customHeight="1" spans="1:19">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/data/业务流程/2 山东在职人员业务指标导入模板.xlsx
+++ b/data/业务流程/2 山东在职人员业务指标导入模板.xlsx
@@ -90,10 +90,10 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>43122519890310283X</t>
-  </si>
-  <si>
-    <t>00008644000000002020012064</t>
+    <t>431225198903109919</t>
+  </si>
+  <si>
+    <t>00008644000000002020012065</t>
   </si>
   <si>
     <t>50.08%</t>
@@ -697,11 +697,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,40 +779,80 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,6 +866,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -834,91 +905,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,6 +913,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -979,13 +986,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,97 +1112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,24 +1130,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1129,18 +1142,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1148,12 +1161,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,11 +1278,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,7 +1321,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,45 +1365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1376,10 +1383,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1388,137 +1395,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1598,8 +1605,8 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1610,6 +1617,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,8 +1635,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2044,17 +2060,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="17.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.225" customWidth="1"/>
+    <col min="3" max="3" width="19.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="26.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="20.5583333333333" customWidth="1"/>
     <col min="6" max="6" width="12.5583333333333" customWidth="1"/>
@@ -2113,7 +2129,7 @@
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
-      <c r="Q2" s="34"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="1:17">
       <c r="A3" s="23"/>
@@ -2129,14 +2145,14 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="35"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:17">
       <c r="A4" s="23" t="s">
@@ -2169,7 +2185,7 @@
       <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="33" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="24" t="s">
@@ -2187,7 +2203,7 @@
       <c r="P4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2201,10 +2217,10 @@
       <c r="C5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="28">
@@ -2237,7 +2253,7 @@
       <c r="O5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="33"/>
+      <c r="P5" s="34"/>
       <c r="Q5" s="23" t="s">
         <v>33</v>
       </c>
@@ -2287,6 +2303,9 @@
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
+    </row>
+    <row r="11" ht="14.25" spans="4:4">
+      <c r="D11" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/data/业务流程/2 山东在职人员业务指标导入模板.xlsx
+++ b/data/业务流程/2 山东在职人员业务指标导入模板.xlsx
@@ -90,7 +90,7 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>431225198903109919</t>
+    <t>431225198903107614</t>
   </si>
   <si>
     <t>00008644000000002020012065</t>
@@ -696,10 +696,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -790,6 +790,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -798,137 +927,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,67 +986,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,103 +1136,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,21 +1278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1319,6 +1304,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1326,11 +1322,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,27 +1353,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,10 +1383,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,137 +1395,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,6 +1605,9 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1638,7 +1641,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2063,7 +2066,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2129,7 +2132,7 @@
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
-      <c r="Q2" s="35"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="1:17">
       <c r="A3" s="23"/>
@@ -2145,14 +2148,14 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="36"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:17">
       <c r="A4" s="23" t="s">
@@ -2185,7 +2188,7 @@
       <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="34" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="24" t="s">
@@ -2203,7 +2206,7 @@
       <c r="P4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2217,95 +2220,95 @@
       <c r="C5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <v>30.05</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="29">
         <v>500</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="34"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:19">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" ht="127" customHeight="1" spans="1:19">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
     </row>
     <row r="11" ht="14.25" spans="4:4">
-      <c r="D11" s="31"/>
+      <c r="D11" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
